--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="9">
+        <v>319.178</v>
+      </c>
+      <c r="D2" s="9">
         <v>565.28300000000002</v>
-      </c>
-      <c r="D2" s="9">
-        <v>319.178</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="9">
+        <v>201.49299999999999</v>
+      </c>
+      <c r="D3" s="9">
         <v>508.75799999999998</v>
-      </c>
-      <c r="D3" s="9">
-        <v>201.49299999999999</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
+        <v>352.62</v>
+      </c>
+      <c r="D4" s="9">
         <v>502.565</v>
-      </c>
-      <c r="D4" s="9">
-        <v>352.62</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
+        <v>241.92</v>
+      </c>
+      <c r="D5" s="9">
         <v>418.44</v>
-      </c>
-      <c r="D5" s="9">
-        <v>241.92</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
+        <v>256.53800000000001</v>
+      </c>
+      <c r="D6" s="9">
         <v>534.91600000000005</v>
-      </c>
-      <c r="D6" s="9">
-        <v>256.53800000000001</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
+        <v>253.958</v>
+      </c>
+      <c r="D7" s="9">
         <v>579.75400000000002</v>
-      </c>
-      <c r="D7" s="9">
-        <v>253.958</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
+        <v>287.1626</v>
+      </c>
+      <c r="D8" s="9">
         <v>599.09400000000005</v>
-      </c>
-      <c r="D8" s="9">
-        <v>287.1626</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="9">
+        <v>268.28089999999997</v>
+      </c>
+      <c r="D9" s="9">
         <v>589.09979999999996</v>
-      </c>
-      <c r="D9" s="9">
-        <v>268.28089999999997</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="9">
+        <v>244.9126</v>
+      </c>
+      <c r="D10" s="9">
         <v>578.98440000000005</v>
-      </c>
-      <c r="D10" s="9">
-        <v>244.9126</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="9">
+        <v>217.35499999999999</v>
+      </c>
+      <c r="D11" s="9">
         <v>565.94100000000003</v>
-      </c>
-      <c r="D11" s="9">
-        <v>217.35499999999999</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="9">
+        <v>192.6737</v>
+      </c>
+      <c r="D12" s="9">
         <v>554.17250000000001</v>
-      </c>
-      <c r="D12" s="9">
-        <v>192.6737</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="9">
+        <v>290.01299999999998</v>
+      </c>
+      <c r="D13" s="9">
         <v>592.85069999999996</v>
-      </c>
-      <c r="D13" s="9">
-        <v>290.01299999999998</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="9">
+        <v>270.95100000000002</v>
+      </c>
+      <c r="D14" s="9">
         <v>583.76459999999997</v>
-      </c>
-      <c r="D14" s="9">
-        <v>270.95100000000002</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="9">
+        <v>247.85</v>
+      </c>
+      <c r="D15" s="9">
         <v>572.78229999999996</v>
-      </c>
-      <c r="D15" s="9">
-        <v>247.85</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
+        <v>303.34710000000001</v>
+      </c>
+      <c r="D16" s="9">
         <v>606.76419999999996</v>
-      </c>
-      <c r="D16" s="9">
-        <v>303.34710000000001</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="10">
+        <v>219.40700000000001</v>
+      </c>
+      <c r="D17" s="10">
         <v>561.59280000000001</v>
-      </c>
-      <c r="D17" s="10">
-        <v>219.40700000000001</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>

--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="9">
+        <v>565.28300000000002</v>
+      </c>
+      <c r="D2" s="9">
         <v>319.178</v>
-      </c>
-      <c r="D2" s="9">
-        <v>565.28300000000002</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="9">
+        <v>508.75799999999998</v>
+      </c>
+      <c r="D3" s="9">
         <v>201.49299999999999</v>
-      </c>
-      <c r="D3" s="9">
-        <v>508.75799999999998</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
+        <v>502.565</v>
+      </c>
+      <c r="D4" s="9">
         <v>352.62</v>
-      </c>
-      <c r="D4" s="9">
-        <v>502.565</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
+        <v>418.44</v>
+      </c>
+      <c r="D5" s="9">
         <v>241.92</v>
-      </c>
-      <c r="D5" s="9">
-        <v>418.44</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
+        <v>534.91600000000005</v>
+      </c>
+      <c r="D6" s="9">
         <v>256.53800000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>534.91600000000005</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
+        <v>579.75400000000002</v>
+      </c>
+      <c r="D7" s="9">
         <v>253.958</v>
-      </c>
-      <c r="D7" s="9">
-        <v>579.75400000000002</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
+        <v>599.09400000000005</v>
+      </c>
+      <c r="D8" s="9">
         <v>287.1626</v>
-      </c>
-      <c r="D8" s="9">
-        <v>599.09400000000005</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="9">
+        <v>589.09979999999996</v>
+      </c>
+      <c r="D9" s="9">
         <v>268.28089999999997</v>
-      </c>
-      <c r="D9" s="9">
-        <v>589.09979999999996</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="9">
+        <v>578.98440000000005</v>
+      </c>
+      <c r="D10" s="9">
         <v>244.9126</v>
-      </c>
-      <c r="D10" s="9">
-        <v>578.98440000000005</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="9">
+        <v>565.94100000000003</v>
+      </c>
+      <c r="D11" s="9">
         <v>217.35499999999999</v>
-      </c>
-      <c r="D11" s="9">
-        <v>565.94100000000003</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="9">
+        <v>554.17250000000001</v>
+      </c>
+      <c r="D12" s="9">
         <v>192.6737</v>
-      </c>
-      <c r="D12" s="9">
-        <v>554.17250000000001</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="9">
+        <v>592.85069999999996</v>
+      </c>
+      <c r="D13" s="9">
         <v>290.01299999999998</v>
-      </c>
-      <c r="D13" s="9">
-        <v>592.85069999999996</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="9">
+        <v>583.76459999999997</v>
+      </c>
+      <c r="D14" s="9">
         <v>270.95100000000002</v>
-      </c>
-      <c r="D14" s="9">
-        <v>583.76459999999997</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="9">
+        <v>572.78229999999996</v>
+      </c>
+      <c r="D15" s="9">
         <v>247.85</v>
-      </c>
-      <c r="D15" s="9">
-        <v>572.78229999999996</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="9">
+        <v>606.76419999999996</v>
+      </c>
+      <c r="D16" s="9">
         <v>303.34710000000001</v>
-      </c>
-      <c r="D16" s="9">
-        <v>606.76419999999996</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="10">
+        <v>561.59280000000001</v>
+      </c>
+      <c r="D17" s="10">
         <v>219.40700000000001</v>
-      </c>
-      <c r="D17" s="10">
-        <v>561.59280000000001</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>

--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_april_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>from</t>
   </si>
@@ -73,13 +73,40 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
+  </si>
+  <si>
+    <t>dh</t>
   </si>
 </sst>
 </file>
@@ -475,21 +502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -503,16 +530,19 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -525,19 +555,18 @@
       <c r="D2" s="9">
         <v>319.178</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="9"/>
+      <c r="H2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -550,19 +579,18 @@
       <c r="D3" s="9">
         <v>201.49299999999999</v>
       </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="b">
+      <c r="G3" s="9"/>
+      <c r="H3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -575,19 +603,18 @@
       <c r="D4" s="9">
         <v>352.62</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G4" s="9"/>
+      <c r="H4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -600,19 +627,18 @@
       <c r="D5" s="9">
         <v>241.92</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5" s="9"/>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -625,19 +651,18 @@
       <c r="D6" s="9">
         <v>256.53800000000001</v>
       </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="3" t="b">
+      <c r="G6" s="9"/>
+      <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -650,19 +675,18 @@
       <c r="D7" s="9">
         <v>253.958</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -675,19 +699,18 @@
       <c r="D8" s="9">
         <v>287.1626</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -700,19 +723,18 @@
       <c r="D9" s="9">
         <v>268.28089999999997</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -725,19 +747,18 @@
       <c r="D10" s="9">
         <v>244.9126</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -750,17 +771,16 @@
       <c r="D11" s="9">
         <v>217.35499999999999</v>
       </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -773,17 +793,16 @@
       <c r="D12" s="9">
         <v>192.6737</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -796,17 +815,16 @@
       <c r="D13" s="9">
         <v>290.01299999999998</v>
       </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -819,17 +837,16 @@
       <c r="D14" s="9">
         <v>270.95100000000002</v>
       </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -842,17 +859,16 @@
       <c r="D15" s="9">
         <v>247.85</v>
       </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+      <c r="H15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -865,17 +881,16 @@
       <c r="D16" s="9">
         <v>303.34710000000001</v>
       </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+      <c r="H16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -888,13 +903,12 @@
       <c r="D17" s="10">
         <v>219.40700000000001</v>
       </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="b">
+      <c r="G17" s="10"/>
+      <c r="H17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -906,15 +920,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,16 +960,40 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -972,12 +1010,12 @@
         <v>24.2</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -994,11 +1032,11 @@
         <v>40.700000000000003</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1015,11 +1053,11 @@
         <v>42.4</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1036,11 +1074,11 @@
         <v>44.7</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1057,11 +1095,11 @@
         <v>32.6</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1078,11 +1116,11 @@
         <v>0.2</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1099,11 +1137,11 @@
         <v>11.6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1120,11 +1158,11 @@
         <v>16.8</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1141,11 +1179,11 @@
         <v>34.6</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1162,11 +1200,11 @@
         <v>51.3</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1183,11 +1221,11 @@
         <v>30.8</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1204,11 +1242,11 @@
         <v>29.2</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1225,11 +1263,11 @@
         <v>28.4</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="K14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1246,11 +1284,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1267,11 +1305,11 @@
         <v>42.8</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1288,11 +1326,11 @@
         <v>19.5</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="K17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1309,11 +1347,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="K18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1330,11 +1368,11 @@
         <v>10.1</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1351,11 +1389,11 @@
         <v>27</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="K20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1372,11 +1410,11 @@
         <v>2.6</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="K21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1393,11 +1431,11 @@
         <v>32.1</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="K22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1414,11 +1452,11 @@
         <v>48.8</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="K23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1435,11 +1473,11 @@
         <v>55.4</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="K24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1456,11 +1494,11 @@
         <v>36.9</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1477,11 +1515,11 @@
         <v>39.6</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1498,11 +1536,11 @@
         <v>6.5</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="K27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1519,11 +1557,11 @@
         <v>44.4</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1540,11 +1578,11 @@
         <v>4.7</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1560,11 +1598,11 @@
       <c r="E30">
         <v>6.1</v>
       </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1580,11 +1618,11 @@
       <c r="E31">
         <v>3.1</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1600,11 +1638,11 @@
       <c r="E32">
         <v>19.100000000000001</v>
       </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1620,11 +1658,11 @@
       <c r="E33">
         <v>3.6</v>
       </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1640,11 +1678,11 @@
       <c r="E34">
         <v>21.7</v>
       </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1660,11 +1698,11 @@
       <c r="E35">
         <v>36.799999999999997</v>
       </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1680,11 +1718,11 @@
       <c r="E36">
         <v>52.8</v>
       </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1700,11 +1738,11 @@
       <c r="E37">
         <v>30.5</v>
       </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1720,11 +1758,11 @@
       <c r="E38">
         <v>26.1</v>
       </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1740,11 +1778,11 @@
       <c r="E39">
         <v>31.4</v>
       </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1760,11 +1798,11 @@
       <c r="E40">
         <v>47.9</v>
       </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1780,11 +1818,11 @@
       <c r="E41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1800,11 +1838,11 @@
       <c r="E42">
         <v>27</v>
       </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1820,11 +1858,11 @@
       <c r="E43">
         <v>22.2</v>
       </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1840,11 +1878,11 @@
       <c r="E44">
         <v>58.7</v>
       </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1860,11 +1898,11 @@
       <c r="E45">
         <v>10.6</v>
       </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1880,11 +1918,11 @@
       <c r="E46">
         <v>34.9</v>
       </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1900,11 +1938,11 @@
       <c r="E47">
         <v>57.4</v>
       </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1920,11 +1958,11 @@
       <c r="E48">
         <v>35.5</v>
       </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1940,11 +1978,11 @@
       <c r="E49">
         <v>47.5</v>
       </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1960,11 +1998,11 @@
       <c r="E50">
         <v>14.4</v>
       </c>
-      <c r="K50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1980,11 +2018,11 @@
       <c r="E51">
         <v>57.8</v>
       </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2000,11 +2038,11 @@
       <c r="E52">
         <v>42.3</v>
       </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2020,11 +2058,11 @@
       <c r="E53">
         <v>9.1</v>
       </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2040,11 +2078,11 @@
       <c r="E54">
         <v>17.3</v>
       </c>
-      <c r="K54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2060,11 +2098,11 @@
       <c r="E55">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2080,11 +2118,11 @@
       <c r="E56">
         <v>3.6</v>
       </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2100,11 +2138,11 @@
       <c r="E57">
         <v>56</v>
       </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2120,11 +2158,11 @@
       <c r="E58">
         <v>16.600000000000001</v>
       </c>
-      <c r="K58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2140,11 +2178,11 @@
       <c r="E59">
         <v>56.1</v>
       </c>
-      <c r="K59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2160,7 +2198,7 @@
       <c r="E60">
         <v>34.1</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>3</v>
       </c>
     </row>
